--- a/simulation_data/iterative_algorithm/i_error_level_15_percent_water_1.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_15_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.77903361733745</v>
+        <v>90.21113653070701</v>
       </c>
       <c r="D2" t="n">
-        <v>17.48481303521348</v>
+        <v>17.11827209421214</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>87.63493578549597</v>
+        <v>91.47427132568055</v>
       </c>
       <c r="D3" t="n">
-        <v>15.51594758626349</v>
+        <v>15.84356530636254</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.08444788771192</v>
+        <v>85.66212694623223</v>
       </c>
       <c r="D4" t="n">
-        <v>15.12683557231396</v>
+        <v>13.13481625399211</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.09342794083572</v>
+        <v>87.46453140230005</v>
       </c>
       <c r="D5" t="n">
-        <v>16.45420457214614</v>
+        <v>15.74499975143547</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>84.62829145807831</v>
+        <v>84.77181972595767</v>
       </c>
       <c r="D6" t="n">
-        <v>17.9246313375071</v>
+        <v>14.97497721224687</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.2438874320795</v>
+        <v>87.27383210973903</v>
       </c>
       <c r="D7" t="n">
-        <v>17.99709476163799</v>
+        <v>13.22097414140436</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.17237535440083</v>
+        <v>84.5804827278933</v>
       </c>
       <c r="D8" t="n">
-        <v>15.87462870013485</v>
+        <v>14.82415769401746</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.45618004099117</v>
+        <v>81.43082028495249</v>
       </c>
       <c r="D9" t="n">
-        <v>17.8557512300471</v>
+        <v>11.8214610199694</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.4432739480354</v>
+        <v>82.14113547359004</v>
       </c>
       <c r="D10" t="n">
-        <v>17.39625922256979</v>
+        <v>17.07757198413188</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.3854997166132</v>
+        <v>81.66680322193817</v>
       </c>
       <c r="D11" t="n">
-        <v>15.56579545269246</v>
+        <v>15.18085586802171</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.83059859421441</v>
+        <v>77.38589608003538</v>
       </c>
       <c r="D12" t="n">
-        <v>14.67735085658253</v>
+        <v>15.8680020094659</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.09729574901132</v>
+        <v>78.88496798208038</v>
       </c>
       <c r="D13" t="n">
-        <v>16.95167131252471</v>
+        <v>14.91750916400721</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.7884810220549</v>
+        <v>77.92052988473085</v>
       </c>
       <c r="D14" t="n">
-        <v>16.89751050976331</v>
+        <v>14.3884993603237</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>75.90514579957721</v>
+        <v>74.61536845197361</v>
       </c>
       <c r="D15" t="n">
-        <v>16.05543199232279</v>
+        <v>16.29197017610252</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>74.9423401531715</v>
+        <v>75.68673179144027</v>
       </c>
       <c r="D16" t="n">
-        <v>14.92643770850481</v>
+        <v>17.52192223581766</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.84501537304189</v>
+        <v>75.99371963942504</v>
       </c>
       <c r="D17" t="n">
-        <v>16.22103681622386</v>
+        <v>16.90030955861283</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>72.23896912953406</v>
+        <v>73.80374746375743</v>
       </c>
       <c r="D18" t="n">
-        <v>17.16498311523198</v>
+        <v>15.49096626613842</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>70.35295465624883</v>
+        <v>70.46303072433912</v>
       </c>
       <c r="D19" t="n">
-        <v>15.69192604308714</v>
+        <v>15.58110365391356</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.02073926958114</v>
+        <v>72.44178638165407</v>
       </c>
       <c r="D20" t="n">
-        <v>16.19444382035312</v>
+        <v>16.74573076876569</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>68.84588658396967</v>
+        <v>67.2611085498315</v>
       </c>
       <c r="D21" t="n">
-        <v>16.26150726592946</v>
+        <v>14.95948703821604</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.49131374714727</v>
+        <v>69.8390658109832</v>
       </c>
       <c r="D22" t="n">
-        <v>17.67521918065124</v>
+        <v>16.72684728872514</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>65.79335506633738</v>
+        <v>68.59935294380996</v>
       </c>
       <c r="D23" t="n">
-        <v>16.51561471028734</v>
+        <v>16.92007905070973</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.17805790491234</v>
+        <v>66.6306592399816</v>
       </c>
       <c r="D24" t="n">
-        <v>17.05765196294316</v>
+        <v>13.6313390869659</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.61030780632376</v>
+        <v>65.48517804067644</v>
       </c>
       <c r="D25" t="n">
-        <v>17.99640349996377</v>
+        <v>16.45981907472372</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.27181197374705</v>
+        <v>61.70579621764618</v>
       </c>
       <c r="D26" t="n">
-        <v>17.62452423488966</v>
+        <v>17.43329591150268</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.36892590195409</v>
+        <v>63.41616290978698</v>
       </c>
       <c r="D27" t="n">
-        <v>16.84513115813317</v>
+        <v>16.59631392285245</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>67.17131802186614</v>
+        <v>64.45644073139707</v>
       </c>
       <c r="D28" t="n">
-        <v>16.3112691422339</v>
+        <v>14.03772056474752</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>60.61572002668165</v>
+        <v>60.70831318059355</v>
       </c>
       <c r="D29" t="n">
-        <v>14.92497076879633</v>
+        <v>17.63179990117572</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.24546329329235</v>
+        <v>61.94738627811895</v>
       </c>
       <c r="D30" t="n">
-        <v>14.50663974714616</v>
+        <v>15.23585526442188</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.4535794556402</v>
+        <v>59.61104316838042</v>
       </c>
       <c r="D31" t="n">
-        <v>16.99581042748134</v>
+        <v>14.52533044355417</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>57.85659786305714</v>
+        <v>59.56781532214845</v>
       </c>
       <c r="D32" t="n">
-        <v>14.93469292926449</v>
+        <v>14.4367001297516</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>57.50064294996488</v>
+        <v>60.23079939065219</v>
       </c>
       <c r="D33" t="n">
-        <v>16.26677208685415</v>
+        <v>16.26817203355876</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.10712906033412</v>
+        <v>56.14559226915991</v>
       </c>
       <c r="D34" t="n">
-        <v>16.13078706685046</v>
+        <v>17.44154047814426</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.48846146367406</v>
+        <v>55.66257434643806</v>
       </c>
       <c r="D35" t="n">
-        <v>16.92617788874209</v>
+        <v>15.82352721744785</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>59.21708121402948</v>
+        <v>56.36630493989405</v>
       </c>
       <c r="D36" t="n">
-        <v>16.87714953493751</v>
+        <v>16.10988100126871</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>50.49097629897661</v>
+        <v>54.54127250119863</v>
       </c>
       <c r="D37" t="n">
-        <v>17.81235662579525</v>
+        <v>15.27140274419324</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.60191155924664</v>
+        <v>58.6220726997885</v>
       </c>
       <c r="D38" t="n">
-        <v>18.58917071218733</v>
+        <v>15.73706082132313</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.54223179504472</v>
+        <v>53.85720293527388</v>
       </c>
       <c r="D39" t="n">
-        <v>16.22759837122945</v>
+        <v>16.84756774163569</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>49.36494710231841</v>
+        <v>54.27640404999482</v>
       </c>
       <c r="D40" t="n">
-        <v>17.71055301479503</v>
+        <v>16.85801711155081</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.378570869868</v>
+        <v>50.41693643277831</v>
       </c>
       <c r="D41" t="n">
-        <v>17.42955261411142</v>
+        <v>17.34942450977317</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.44598665604136</v>
+        <v>48.11869748097074</v>
       </c>
       <c r="D42" t="n">
-        <v>14.370834830926</v>
+        <v>16.35572638682434</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.47857645546174</v>
+        <v>50.43059860958137</v>
       </c>
       <c r="D43" t="n">
-        <v>16.64641929662151</v>
+        <v>15.6407982684406</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.75312060145374</v>
+        <v>46.44766379353477</v>
       </c>
       <c r="D44" t="n">
-        <v>18.33384390736853</v>
+        <v>17.66373660445346</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.5019793286191</v>
+        <v>48.47871514569625</v>
       </c>
       <c r="D45" t="n">
-        <v>18.96933802295525</v>
+        <v>17.70257893634317</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.43489451968073</v>
+        <v>44.55287055376773</v>
       </c>
       <c r="D46" t="n">
-        <v>15.08760806599109</v>
+        <v>14.67454150629887</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.27162999780971</v>
+        <v>49.41358487391013</v>
       </c>
       <c r="D47" t="n">
-        <v>17.32341915290241</v>
+        <v>14.78584670610676</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.30815521323412</v>
+        <v>45.00640742712945</v>
       </c>
       <c r="D48" t="n">
-        <v>17.22422979688674</v>
+        <v>14.74430138492278</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.34391978602953</v>
+        <v>42.96264923587798</v>
       </c>
       <c r="D49" t="n">
-        <v>15.82889435443537</v>
+        <v>16.33407851378164</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.48227510301216</v>
+        <v>40.14306702883361</v>
       </c>
       <c r="D50" t="n">
-        <v>16.21726187604192</v>
+        <v>18.62911920620094</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.7371329675064</v>
+        <v>38.7209368535364</v>
       </c>
       <c r="D51" t="n">
-        <v>16.42635034713486</v>
+        <v>17.21862132610197</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.15358087565559</v>
+        <v>40.40741229958859</v>
       </c>
       <c r="D52" t="n">
-        <v>17.28672685661918</v>
+        <v>17.47045646248334</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>41.12986646116823</v>
+        <v>38.35327668247133</v>
       </c>
       <c r="D53" t="n">
-        <v>15.54885679336149</v>
+        <v>17.33683848118488</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.4617493279472</v>
+        <v>38.43887071448068</v>
       </c>
       <c r="D54" t="n">
-        <v>15.63827039282343</v>
+        <v>17.7263033848625</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.86796927444134</v>
+        <v>36.98465621612807</v>
       </c>
       <c r="D55" t="n">
-        <v>15.11049037076527</v>
+        <v>16.98202975495223</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.62034314655391</v>
+        <v>36.73090243166186</v>
       </c>
       <c r="D56" t="n">
-        <v>15.00707597943815</v>
+        <v>17.06587811754768</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.16855145376123</v>
+        <v>35.88989453320704</v>
       </c>
       <c r="D57" t="n">
-        <v>15.61391531239143</v>
+        <v>17.72094417966372</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>31.31788197281677</v>
+        <v>34.4734006201038</v>
       </c>
       <c r="D58" t="n">
-        <v>17.14102918092189</v>
+        <v>16.72379871028484</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.6902865631983</v>
+        <v>30.84045945983436</v>
       </c>
       <c r="D59" t="n">
-        <v>16.10524364502955</v>
+        <v>18.64144476134882</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>36.19586526978114</v>
+        <v>31.33555090943446</v>
       </c>
       <c r="D60" t="n">
-        <v>15.83648895873275</v>
+        <v>17.85911231112026</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.33295106804927</v>
+        <v>33.96794734303347</v>
       </c>
       <c r="D61" t="n">
-        <v>13.83192180325477</v>
+        <v>18.26047592263636</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>32.11022256584292</v>
+        <v>26.15305170342825</v>
       </c>
       <c r="D62" t="n">
-        <v>17.41966048498652</v>
+        <v>16.84128282531449</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>24.43083684557033</v>
+        <v>29.54932501261789</v>
       </c>
       <c r="D63" t="n">
-        <v>17.62871941414564</v>
+        <v>16.4441212309437</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.76208797023642</v>
+        <v>29.20067956770325</v>
       </c>
       <c r="D64" t="n">
-        <v>14.79411474403085</v>
+        <v>17.42338725756374</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.60975648041151</v>
+        <v>24.93525794295461</v>
       </c>
       <c r="D65" t="n">
-        <v>17.18165908537014</v>
+        <v>17.06375438699862</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.03233886229109</v>
+        <v>23.02267035112446</v>
       </c>
       <c r="D66" t="n">
-        <v>18.58318856485569</v>
+        <v>17.84408032806042</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>27.53914411035164</v>
+        <v>23.62270040135853</v>
       </c>
       <c r="D67" t="n">
-        <v>18.17476672270669</v>
+        <v>16.85612232313786</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.5948053518555</v>
+        <v>27.36363259594528</v>
       </c>
       <c r="D68" t="n">
-        <v>16.78862471941741</v>
+        <v>18.2971939803727</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.61882598986584</v>
+        <v>24.33033092087615</v>
       </c>
       <c r="D69" t="n">
-        <v>17.43441082393271</v>
+        <v>15.58958152440634</v>
       </c>
     </row>
   </sheetData>
